--- a/JapanGameContest2023/イラスト追加分 イメージ.xlsx
+++ b/JapanGameContest2023/イラスト追加分 イメージ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1072481-0A03-42DE-B174-088742043393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="欲しいイラスト" sheetId="1" r:id="rId1"/>
@@ -30,23 +31,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　サイズ：256×256(pixel)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　背景は透過でお願いします</t>
-    <rPh sb="1" eb="3">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウカ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　追加分のイラストです</t>
     <rPh sb="1" eb="3">
       <t>ツイカ</t>
@@ -61,14 +45,67 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【エフェクト】</t>
+    <t>　パソコンは、見た目は下で、画面内は上みたいにグラフ的なのを入れてほしいです</t>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　矢印はマウスカーソルと、下の 上下を指してる物両方お願いします</t>
+    <rPh sb="1" eb="3">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ネガ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,7 +174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -153,10 +190,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -182,13 +216,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -228,156 +262,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>224117</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>426831</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>17144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>653189</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>221651</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="134470" y="1890992"/>
-          <a:ext cx="1951505" cy="442632"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>ホームボタン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>113179</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>173130</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>139512</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="113179" y="3983130"/>
-          <a:ext cx="2134721" cy="442632"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>リトライボタン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>137271</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>363629</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>214031</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2880471" y="1914524"/>
-          <a:ext cx="1597958" cy="442632"/>
+          <a:off x="2438511" y="1845944"/>
+          <a:ext cx="1567478" cy="433107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -424,155 +334,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>154080</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>560</xdr:rowOff>
+      <xdr:colOff>242046</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>378197</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>468404</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200696</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="154080" y="6668060"/>
-          <a:ext cx="1595717" cy="4333315"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>ガス</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>224677</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>273983</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2105025" y="6654052"/>
-          <a:ext cx="1597958" cy="3185273"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>星</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>219074</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>316004</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>185456</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2832846" y="4029074"/>
-          <a:ext cx="1597958" cy="442632"/>
+          <a:off x="242046" y="1834514"/>
+          <a:ext cx="1567478" cy="423582"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -618,26 +404,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>270621</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>219074</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>621141</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>36194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>496979</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>185456</xdr:rowOff>
+      <xdr:colOff>176939</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="テキスト ボックス 36"/>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5071221" y="1885949"/>
-          <a:ext cx="1597958" cy="442632"/>
+          <a:off x="4644501" y="1864994"/>
+          <a:ext cx="1567478" cy="423582"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -679,6 +471,530 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>49592</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>145519</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>27157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1370DA-C297-C812-6446-7A52A08B2E24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4743512" y="2484120"/>
+          <a:ext cx="1437047" cy="1429237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>501716</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>567401</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54C7082-B7FF-8310-C002-E7F482005FC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2513396" y="2354580"/>
+          <a:ext cx="1406805" cy="1851660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4192F9D-2AAC-0723-022C-4752FBA2CB45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="2644140"/>
+          <a:ext cx="1013460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9A4323-0EA0-D168-E676-77F703D68A3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="2910840"/>
+          <a:ext cx="1013460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A3F145-8538-304C-ADBD-4BBE8C102B49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="3177540"/>
+          <a:ext cx="1013460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9AC01E0-E095-A245-F45F-16FDE391C771}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="3444240"/>
+          <a:ext cx="1013460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA9E8B65-6A74-EC9C-8D31-45BC7F1D659E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="3710940"/>
+          <a:ext cx="1013460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5237</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>106679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D62284-8EF0-79AC-2452-667D9ADFC32D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2148840"/>
+          <a:ext cx="2016917" cy="1844039"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>144781</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>179326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>164539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF35823-1370-551D-FD93-D0991FAD8CFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="144781" y="3836926"/>
+          <a:ext cx="1943100" cy="1814013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4088063F-9336-2BE7-E14F-8D6AC01E102C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4808220" y="3323570"/>
+          <a:ext cx="1386840" cy="1652290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -946,57 +1262,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6"/>
-    </row>
-    <row r="4" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6"/>
-    </row>
-    <row r="7" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A110"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A117" s="5"/>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
